--- a/resources/data_example/left_duplicates.xlsx
+++ b/resources/data_example/left_duplicates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>a</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>instance_key</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -362,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -421,6 +424,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
